--- a/Datos_201901_202009.xlsx
+++ b/Datos_201901_202009.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.cotacallapa\Desktop\FILES_WORK\3.- PARTICULARES\2.- COL\4.- ENTREVISTAS COL\1.- EXAMEN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaciodelacuba/Library/Mobile Documents/com~apple~CloudDocs/Coding/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7CFA6DB4-C5B3-4BFE-BFC5-83C1B8F5D81E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF26085-3127-8645-9762-D04FB63EBBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29620" yWindow="1200" windowWidth="19200" windowHeight="15040" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="14" r:id="rId1"/>
     <sheet name="DESCRIPCION VARIABLES" sheetId="15" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -949,12 +961,12 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -992,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>201901</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>54113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>201902</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>201903</v>
       </c>
@@ -1106,7 +1118,7 @@
         <v>50112</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>201904</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>49522</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>201905</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>51854</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>201906</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>54349</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>201907</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>56634</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>201908</v>
       </c>
@@ -1296,7 +1308,7 @@
         <v>56826</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>201909</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>55058</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>201910</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>59947</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>201911</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>59178</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>201912</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>61789</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>201913</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>59037</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>201914</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>64057</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>201915</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>66863</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>201916</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>58280</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>201917</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>64791</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>201918</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>57462</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>202001</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>48886</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>202002</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>47766</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>202003</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>51204</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>202004</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>56072</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>202005</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>50980</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>202006</v>
       </c>
@@ -1904,7 +1916,7 @@
         <v>46800</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>202007</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>50352</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>202008</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>202009</v>
       </c>
@@ -2031,12 +2043,12 @@
       <selection activeCell="B5" sqref="B5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -2048,7 +2060,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2056,7 +2068,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2064,7 +2076,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2072,7 +2084,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2096,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2092,7 +2104,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2104,7 +2116,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2112,7 +2124,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2124,7 +2136,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2132,7 +2144,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2156,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2404,13 +2416,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450D9E16-EA51-4110-9438-5916EEB73676}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450D9E16-EA51-4110-9438-5916EEB73676}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f5820d5b-dfd3-4d59-8ddb-4879503d6077"/>
+    <ds:schemaRef ds:uri="fcdf8ff0-a1c0-449c-8522-6c2e6842f2c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B8A558-7786-4B05-A903-1818D2E8A0A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B8A558-7786-4B05-A903-1818D2E8A0A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D7C87E-ACFF-46E6-9936-376B227A4D8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D7C87E-ACFF-46E6-9936-376B227A4D8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f5820d5b-dfd3-4d59-8ddb-4879503d6077"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Datos_201901_202009.xlsx
+++ b/Datos_201901_202009.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaciodelacuba/Library/Mobile Documents/com~apple~CloudDocs/Coding/jobs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.cotacallapa\Desktop\FILES_WORK\3.- PARTICULARES\2.- COL\4.- ENTREVISTAS COL\1.- EXAMEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF26085-3127-8645-9762-D04FB63EBBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7CFA6DB4-C5B3-4BFE-BFC5-83C1B8F5D81E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29620" yWindow="1200" windowWidth="19200" windowHeight="15040" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="14" r:id="rId1"/>
     <sheet name="DESCRIPCION VARIABLES" sheetId="15" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -961,12 +949,12 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>201901</v>
       </c>
@@ -1042,7 +1030,7 @@
         <v>54113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>201902</v>
       </c>
@@ -1080,7 +1068,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>201903</v>
       </c>
@@ -1118,7 +1106,7 @@
         <v>50112</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>201904</v>
       </c>
@@ -1156,7 +1144,7 @@
         <v>49522</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>201905</v>
       </c>
@@ -1194,7 +1182,7 @@
         <v>51854</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>201906</v>
       </c>
@@ -1232,7 +1220,7 @@
         <v>54349</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>201907</v>
       </c>
@@ -1270,7 +1258,7 @@
         <v>56634</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>201908</v>
       </c>
@@ -1308,7 +1296,7 @@
         <v>56826</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>201909</v>
       </c>
@@ -1346,7 +1334,7 @@
         <v>55058</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>201910</v>
       </c>
@@ -1384,7 +1372,7 @@
         <v>59947</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>201911</v>
       </c>
@@ -1422,7 +1410,7 @@
         <v>59178</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>201912</v>
       </c>
@@ -1460,7 +1448,7 @@
         <v>61789</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>201913</v>
       </c>
@@ -1498,7 +1486,7 @@
         <v>59037</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>201914</v>
       </c>
@@ -1536,7 +1524,7 @@
         <v>64057</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>201915</v>
       </c>
@@ -1574,7 +1562,7 @@
         <v>66863</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>201916</v>
       </c>
@@ -1612,7 +1600,7 @@
         <v>58280</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>201917</v>
       </c>
@@ -1650,7 +1638,7 @@
         <v>64791</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>201918</v>
       </c>
@@ -1688,7 +1676,7 @@
         <v>57462</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>202001</v>
       </c>
@@ -1726,7 +1714,7 @@
         <v>48886</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>202002</v>
       </c>
@@ -1764,7 +1752,7 @@
         <v>47766</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>202003</v>
       </c>
@@ -1802,7 +1790,7 @@
         <v>51204</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>202004</v>
       </c>
@@ -1840,7 +1828,7 @@
         <v>56072</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>202005</v>
       </c>
@@ -1878,7 +1866,7 @@
         <v>50980</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>202006</v>
       </c>
@@ -1916,7 +1904,7 @@
         <v>46800</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>202007</v>
       </c>
@@ -1954,7 +1942,7 @@
         <v>50352</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>202008</v>
       </c>
@@ -1992,7 +1980,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>202009</v>
       </c>
@@ -2043,12 +2031,12 @@
       <selection activeCell="B5" sqref="B5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -2060,7 +2048,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2068,7 +2056,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2076,7 +2064,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2084,7 +2072,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2084,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2104,7 +2092,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2116,7 +2104,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2124,7 +2112,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2136,7 +2124,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2144,7 +2132,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2144,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2416,38 +2404,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450D9E16-EA51-4110-9438-5916EEB73676}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f5820d5b-dfd3-4d59-8ddb-4879503d6077"/>
-    <ds:schemaRef ds:uri="fcdf8ff0-a1c0-449c-8522-6c2e6842f2c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450D9E16-EA51-4110-9438-5916EEB73676}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B8A558-7786-4B05-A903-1818D2E8A0A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B8A558-7786-4B05-A903-1818D2E8A0A8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D7C87E-ACFF-46E6-9936-376B227A4D8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f5820d5b-dfd3-4d59-8ddb-4879503d6077"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D7C87E-ACFF-46E6-9936-376B227A4D8A}"/>
 </file>